--- a/Question_Sets/Programming skills/Machine Learning in Amazon Web Services (AWS).xlsx
+++ b/Question_Sets/Programming skills/Machine Learning in Amazon Web Services (AWS).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are working on a complex binary classification problem using SageMaker Autopilot, where the positive class represents only 5% of the total observations. After the training process, you are unsatisfied with the results and think your model is biased toward the majority class.What approach should you use to improve the results in the shortest amount of time?', 'ques_type': 2, 'options': ['Increase the number of generated candidate models.', 'Manually balance classes before inputting to Autopilot.', 'Use the class_imbalance hyperparameters of Autopilot settings.', 'Apply training on separate batches instead of the whole data set.'], 'score': 'Use the class_imbalance hyperparameters of Autopilot settings.'}, {'title': 'You are a machine learning engineer and are developing an algorithm that is unavailable in the SageMaker built-in algorithms. The algorithm is implemented in Python using “scikit-learn” and “pandas” libraries. How should you train the model on SageMaker?', 'ques_type': 2, 'options': ['Use SageMaker Python SDK to create a Script Mode training job.', 'Upload the Python script to an S3 bucket and use it during training.', 'Make a copy of the algorithm with one of SageMaker’s built-in solutions.', 'Run the script using AWS Lambda.'], 'score': 'Use SageMaker Python SDK to create a Script Mode training job.'}, {'title': 'You have deployed a machine learning model in SageMaker and enabled data capturing. Now you want to analyze the captured data and compare it with the baseline statistics. How should you complete the task?', 'ques_type': 2, 'options': ['Use SageMaker Model Monitor’s analysis and baselining jobs.', 'Analyze the captured data using “pandas” or other libraries.', 'Analyze the data using AWS Glue.', 'Use AWS QuickSight’s analysis and baselining jobs.'], 'score': 'Use SageMaker Model Monitor’s analysis and baselining jobs.'}, {'title': 'You are a machine learning engineer at a retail company and have been assigned to forecast inventory demand for the next quarter based on past sales data. The data has complex patterns, multiple seasonalities, and relevant time-varying variables like promotional events and holidays. What approach should you use?', 'ques_type': 2, 'options': ['Use Amazon Forecast with the DeepAR+ algorithm.', 'Use Amazon Forecast with the Prophet algorithm.', 'Use Amazon Forecast with a long short-term memory (LSTM) network.', 'Use Amazon Forecast with a moving average method.'], 'score': 'Use Amazon Forecast with the DeepAR+ algorithm.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are working on a complex binary classification problem using SageMaker Autopilot, where the positive class represents only 5% of the total observations. After the training process, you are unsatisfied with the results and think your model is biased toward the majority class.What approach should you use to improve the results in the shortest amount of time?",
+        "ques_type": 2,
+        "options": [
+            "Increase the number of generated candidate models.",
+            "Manually balance classes before inputting to Autopilot.",
+            "Use the class_imbalance hyperparameters of Autopilot settings.",
+            "Apply training on separate batches instead of the whole data set."
+        ],
+        "score": "Use the class_imbalance hyperparameters of Autopilot settings."
+    },
+    {
+        "title": "You are a machine learning engineer and are developing an algorithm that is unavailable in the SageMaker built-in algorithms. The algorithm is implemented in Python using \u201cscikit-learn\u201d and \u201cpandas\u201d libraries. How should you train the model on SageMaker?",
+        "ques_type": 2,
+        "options": [
+            "Use SageMaker Python SDK to create a Script Mode training job.",
+            "Upload the Python script to an S3 bucket and use it during training.",
+            "Make a copy of the algorithm with one of SageMaker\u2019s built-in solutions.",
+            "Run the script using AWS Lambda."
+        ],
+        "score": "Use SageMaker Python SDK to create a Script Mode training job."
+    },
+    {
+        "title": "You have deployed a machine learning model in SageMaker and enabled data capturing. Now you want to analyze the captured data and compare it with the baseline statistics. How should you complete the task?",
+        "ques_type": 2,
+        "options": [
+            "Use SageMaker Model Monitor\u2019s analysis and baselining jobs.",
+            "Analyze the captured data using \u201cpandas\u201d or other libraries.",
+            "Analyze the data using AWS Glue.",
+            "Use AWS QuickSight\u2019s analysis and baselining jobs."
+        ],
+        "score": "Use SageMaker Model Monitor\u2019s analysis and baselining jobs."
+    },
+    {
+        "title": "You are a machine learning engineer at a retail company and have been assigned to forecast inventory demand for the next quarter based on past sales data. The data has complex patterns, multiple seasonalities, and relevant time-varying variables like promotional events and holidays. What approach should you use?",
+        "ques_type": 2,
+        "options": [
+            "Use Amazon Forecast with the DeepAR+ algorithm.",
+            "Use Amazon Forecast with the Prophet algorithm.",
+            "Use Amazon Forecast with a long short-term memory (LSTM) network.",
+            "Use Amazon Forecast with a moving average method."
+        ],
+        "score": "Use Amazon Forecast with the DeepAR+ algorithm."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
